--- a/biology/Botanique/Cymbopogon/Cymbopogon.xlsx
+++ b/biology/Botanique/Cymbopogon/Cymbopogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbopogon est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, qui comprend une cinquantaine d'espèces originaires des régions tropicales et subtropicales d'Afrique, d'Asie et d'Australie.
 Ce sont des plantes herbacées, généralement vivaces, rarement annuelles, cespiteuses ou rhizomateuses, dont les tiges (chaumes) peuvent atteindre de 15 à 300 cm de long. Certaines espèces de ce genre sont depuis très longtemps introduites et naturalisées dans tout le monde intertropical pour leurs aptitudes aromatiques culinaires et médicinales.
@@ -516,9 +528,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon « The Plant List »[1]   29 avril 2013
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon « The Plant List »   29 avril 2013
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon « The Plant List »[1]   29 avril 2013
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon « The Plant List »   29 avril 2013
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon « The Plant List »[1]   29 avril 2013
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon « The Plant List »   29 avril 2013
 </t>
         </is>
       </c>
